--- a/docs/����������� � ������.xlsx
+++ b/docs/����������� � ������.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="22836" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="310"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
   <si>
     <t>Email</t>
   </si>
@@ -24,16 +30,22 @@
     <t>Skype</t>
   </si>
   <si>
+    <t>Ветка в GIT</t>
+  </si>
+  <si>
     <t>Задача</t>
   </si>
   <si>
-    <t>№ п/п</t>
-  </si>
-  <si>
     <t>Чеботарёв Н.Ю.</t>
   </si>
   <si>
-    <t>Исполнитель</t>
+    <t>chebotaryovnik@gmail.com</t>
+  </si>
+  <si>
+    <t>nikolay_chebotaryov</t>
+  </si>
+  <si>
+    <t>develop</t>
   </si>
   <si>
     <t>Абстрактная модель доски независимо от размеров и фигур</t>
@@ -48,129 +60,147 @@
     <t>Абстрактная модель доски размером 8x8, стандартные шаш. фигуры, стандартное и задаваемое расположение</t>
   </si>
   <si>
+    <t>Морозов</t>
+  </si>
+  <si>
+    <t>chessMoves</t>
+  </si>
+  <si>
+    <t>Запись шахм. ходов и нотации (внутренняя, SAN, LAN), алгоритмы конвертации</t>
+  </si>
+  <si>
+    <t>Кулибаба</t>
+  </si>
+  <si>
+    <t>chessRules</t>
+  </si>
+  <si>
+    <t>Алгоритмы проверки шахм. ходов (простые ходы)</t>
+  </si>
+  <si>
+    <t>Алгоритмы проверки шахм. ходов (взятие фигур, рокировки, продвижения фигур)</t>
+  </si>
+  <si>
+    <t>Лебединский</t>
+  </si>
+  <si>
+    <t>checkerMoves</t>
+  </si>
+  <si>
+    <t>Запись шаш. ходов и нотации (внутренняя, и прочие?), алгоритмы конвертации</t>
+  </si>
+  <si>
+    <t>Легенький</t>
+  </si>
+  <si>
+    <t>checkerRules</t>
+  </si>
+  <si>
+    <t>Алгоритмы проверки шаш. ходов (простые ходы, взятия и продвижения)</t>
+  </si>
+  <si>
+    <t>Меркулов</t>
+  </si>
+  <si>
+    <t>uci</t>
+  </si>
+  <si>
+    <t>Поддержка протокола UCI (запуск доч. UCI процессов, перенаправление STDIN/STDOUT, выполнение команд, считывание ответов)</t>
+  </si>
+  <si>
+    <t>Мусенко ?</t>
+  </si>
+  <si>
+    <t>swingView</t>
+  </si>
+  <si>
     <t>Стандартное отображение доски размером 8х8 (AWT, Java2D, Swing)</t>
   </si>
   <si>
-    <t>Запись шахм. ходов и нотации (внутренняя, SAN, LAN), алгоритмы конвертации</t>
-  </si>
-  <si>
-    <t>Алгоритмы проверки шахм. ходов (простые ходы)</t>
-  </si>
-  <si>
-    <t>Алгоритмы проверки шахм. ходов (взятие фигур, рокировки, продвижения фигур)</t>
-  </si>
-  <si>
-    <t>Запись шаш. ходов и нотации (внутренняя, и прочие?), алгоритмы конвертации</t>
-  </si>
-  <si>
-    <t>Алгоритмы проверки шаш. ходов (простые ходы, взятия и продвижения)</t>
-  </si>
-  <si>
-    <t>Поддержка протокола UCI (запуск доч. UCI процессов, перенаправление STDIN/STDOUT, выполнение команд, считывание ответов)</t>
+    <t>chessSwingView</t>
   </si>
   <si>
     <t>Стандартное отображение доски размером 8х8 + шахм. фигуры в заданном расположении (AWT, Java2D, Swing)</t>
   </si>
   <si>
+    <t>checkerSwingView</t>
+  </si>
+  <si>
     <t>Стандартное отображение доски размером 8х8 + шаш. фигуры в заданном расположении (AWT, Java2D, Swing)</t>
   </si>
   <si>
+    <t>Мельников</t>
+  </si>
+  <si>
+    <t>androidView</t>
+  </si>
+  <si>
     <t>Стандартное отображение доски размером 8х8 (Android)</t>
   </si>
   <si>
+    <t>Щигров</t>
+  </si>
+  <si>
     <t>Стандартное отображение доски размером 8х8 + шахм. и шаш. фигуры в заданном расположении (Android)</t>
   </si>
   <si>
+    <t>design1</t>
+  </si>
+  <si>
     <t>Дизайн доски и фигур 1 (шахм. и шаш.), несколько размеров (16x16, 24x24, 32x32, 48x48, 64x64, 96x96, 128x128, 192x192, 256x256)</t>
   </si>
   <si>
+    <t>Чепижко?</t>
+  </si>
+  <si>
+    <t>desaign2</t>
+  </si>
+  <si>
     <t>Дизайн доски и фигур 2 (шахм. и шаш.), несколько размеров (16x16, 24x24, 32x32, 48x48, 64x64, 96x96, 128x128, 192x192, 256x256)</t>
   </si>
   <si>
-    <t>Ветка в GIT</t>
-  </si>
-  <si>
-    <t>develop</t>
-  </si>
-  <si>
-    <t>chessRules</t>
-  </si>
-  <si>
-    <t>chessMoves</t>
-  </si>
-  <si>
-    <t>checkerMoves</t>
-  </si>
-  <si>
-    <t>checkerRules</t>
-  </si>
-  <si>
-    <t>uci</t>
-  </si>
-  <si>
-    <t>swingView</t>
-  </si>
-  <si>
-    <t>chessSwingView</t>
-  </si>
-  <si>
-    <t>checkerSwingView</t>
-  </si>
-  <si>
-    <t>androidView</t>
-  </si>
-  <si>
-    <t>design1</t>
-  </si>
-  <si>
-    <t>desaign2</t>
-  </si>
-  <si>
     <t>Управление перемещением шахм. фигур на доске (AWT, Java2D, Swing), интеграция с проверкой правил</t>
   </si>
   <si>
     <t>Управление перемещением шаш. фигур на доске (AWT, Java2D, Swing), интеграция с проверкой правил</t>
   </si>
   <si>
+    <t>Мокроусов</t>
+  </si>
+  <si>
     <t>Управление перемещением шахм. и шаш. фигур на доске (Android), интеграция с проверкой правил</t>
   </si>
   <si>
-    <t>chebotaryovnik@gmail.com</t>
-  </si>
-  <si>
-    <t>nikolay_chebotaryov</t>
+    <t>Власенко</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="55"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="31"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,8 +212,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="23"/>
+        <bgColor indexed="14"/>
       </patternFill>
     </fill>
   </fills>
@@ -196,24 +226,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -298,6 +324,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -354,60 +395,111 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00D9D9D9"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -445,7 +537,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -479,7 +571,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -514,10 +605,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -690,416 +780,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="115.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="116.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="14" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/docs/����������� � ������.xlsx
+++ b/docs/����������� � ������.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="310"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>№ п/п</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Стандартное отображение доски размером 8х8 + шаш. фигуры в заданном расположении (AWT, Java2D, Swing)</t>
   </si>
   <si>
-    <t>Мельников</t>
-  </si>
-  <si>
     <t>androidView</t>
   </si>
   <si>
@@ -171,14 +168,14 @@
     <t>Управление перемещением шахм. и шаш. фигур на доске (Android), интеграция с проверкой правил</t>
   </si>
   <si>
-    <t>Власенко</t>
+    <t>Мельников, Власенко</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -421,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,13 +490,18 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -537,7 +539,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -571,6 +573,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -605,9 +608,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -780,24 +784,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="116.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="116.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -837,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -857,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -871,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -885,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -901,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -917,7 +921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -931,7 +935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -947,7 +951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -963,7 +967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -979,7 +983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -995,7 +999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1009,13 +1013,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
@@ -1025,39 +1027,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1067,29 +1069,29 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1100,10 +1102,10 @@
         <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1114,26 +1116,26 @@
         <v>35</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1143,7 +1145,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1153,7 +1155,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -1163,7 +1165,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -1173,7 +1175,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -1195,12 +1197,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1209,12 +1211,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
